--- a/biology/Botanique/Ceanothus_arboreus/Ceanothus_arboreus.xlsx
+++ b/biology/Botanique/Ceanothus_arboreus/Ceanothus_arboreus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceanothus arboreus, le céanothe en arbre, est une espèce de plantes à fleurs dicotylédones de la famille des Rhamnaceae, endémique de Californie. Ce sont des arbustes pouvant atteindre 10 mètres de haut, aux fleurs bleues groupées en panicules denses, largement cultivés comme plantes ornementales.
 </t>
@@ -513,14 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (28 avril 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (28 avril 2019) :
 Ceanothus arboreus var. glaber Jeps.
-Ceanothus arboreus var. glabra Jepson[2]
+Ceanothus arboreus var. glabra Jepson
 Ceanothus sorediatus Lyon
-Ceanothus velutinus var. arboreus (Greene) Sarg.
-Liste des variétés
-Selon Tropicos                                           (28 avril 2019)[3] (Attention liste brute contenant possiblement des synonymes) :
+Ceanothus velutinus var. arboreus (Greene) Sarg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ceanothus_arboreus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceanothus_arboreus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (28 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Ceanothus arboreus var. arboreus
 Ceanothus arboreus var. glaber Jeps.</t>
         </is>
